--- a/console/Networking/iaas网络与容器中文提取/subnetExcel/list.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/subnetExcel/list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2018年\12月\12月4日\VPC和子网国际化-by-JD\最终版\subnetExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -65,18 +65,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>子网帮助文档</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>list_i18nKey_3</t>
     </r>
   </si>
@@ -425,18 +413,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>新建子网</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>list_i18nKey_18</t>
     </r>
   </si>
@@ -521,18 +497,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Subnet Help Documentation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Create</t>
     </r>
   </si>
@@ -557,18 +521,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hosting VPC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Associated Route Table</t>
     </r>
   </si>
@@ -693,59 +645,67 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Create a new subnet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'The quota of selected VPC resource is full'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Confirm to delete the subnet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Delete subnet'</t>
-    </r>
+    <t>VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Subnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The quota of selected VPC resource is full'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Confirm to delete the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subnet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help Documentation of Subnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子网帮助文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建子网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subnet'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,6 +715,29 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -781,8 +764,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1122,15 +1109,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,223 +1129,233 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B20" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 A3:B16 A2 A18:B20 A17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>